--- a/outputs-r202/f__Campylobacteraceae_train.xlsx
+++ b/outputs-r202/f__Campylobacteraceae_train.xlsx
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997396825883479</v>
+        <v>0.9985288496037231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002603174115854399</v>
+        <v>0.001471150396210315</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220330533379215e-14</v>
+        <v>2.219840433612748e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.220330533379215e-14</v>
+        <v>2.219840433612748e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220330533379215e-14</v>
+        <v>2.219840433612748e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9997396825883479</v>
+        <v>0.9985288496037231</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998019462446197</v>
+        <v>0.9987361409300241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001980537553136242</v>
+        <v>0.001263859069909238</v>
       </c>
       <c r="D3" t="n">
-        <v>2.22035814681514e-14</v>
+        <v>2.219886864723651e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.22035814681514e-14</v>
+        <v>2.219886864723651e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.22035814681514e-14</v>
+        <v>2.219886864723651e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9998019462446197</v>
+        <v>0.9987361409300241</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999861532733786</v>
+        <v>0.9998493976636598</v>
       </c>
       <c r="C4" t="n">
-        <v>1.384672655467671e-05</v>
+        <v>0.0001506023362736234</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220439900318162e-14</v>
+        <v>2.220379197924945e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220439900318162e-14</v>
+        <v>2.220379197924945e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220439900318162e-14</v>
+        <v>2.220379197924945e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9999861532733786</v>
+        <v>0.9998493976636598</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999178088165579</v>
+        <v>0.999374048313139</v>
       </c>
       <c r="C5" t="n">
-        <v>8.219118337559296e-05</v>
+        <v>0.0006259516867942616</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220409557832797e-14</v>
+        <v>2.220168581367587e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220409557832797e-14</v>
+        <v>2.220168581367587e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220409557832797e-14</v>
+        <v>2.220168581367587e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999178088165579</v>
+        <v>0.999374048313139</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999560175657027</v>
+        <v>0.999620331338924</v>
       </c>
       <c r="C6" t="n">
-        <v>4.398243423070132e-05</v>
+        <v>0.0003796686610094263</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220426519645765e-14</v>
+        <v>2.220277630294331e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220426519645765e-14</v>
+        <v>2.220277630294331e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220426519645765e-14</v>
+        <v>2.220277630294331e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999560175657027</v>
+        <v>0.999620331338924</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -712,22 +712,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999960150678471</v>
+        <v>0.9999444205727289</v>
       </c>
       <c r="C7" t="n">
-        <v>3.984932086405963e-06</v>
+        <v>5.557942720437449e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220444279605598e-14</v>
+        <v>2.220421371050432e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220444279605598e-14</v>
+        <v>2.220421371050432e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220444279605598e-14</v>
+        <v>2.220421371050432e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999960150678471</v>
+        <v>0.9999444205727289</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.9999999999937129</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6.22036490363708e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.220446049247491e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.220446049247491e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.220446049247491e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.9999999999937129</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -798,26 +798,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001816265.1_9.fasta</t>
+          <t>GB_GCA_001816265.1_17.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997396825883479</v>
+        <v>0.9759867199379478</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002603174115854399</v>
+        <v>0.01653244639280354</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220330533379215e-14</v>
+        <v>0.005942812302248858</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220330533379215e-14</v>
+        <v>0.001538021366896618</v>
       </c>
       <c r="F10" t="n">
-        <v>2.220330533379215e-14</v>
+        <v>1.032886838934424e-13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9997396825883479</v>
+        <v>0.9759867199379478</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -828,26 +828,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002139875.1_12.fasta</t>
+          <t>GB_GCA_900319915.1_12.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998019462446197</v>
+        <v>0.9989749666707028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001980537553136242</v>
+        <v>2.990605157143065e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>2.22035814681514e-14</v>
+        <v>0.001024990129175431</v>
       </c>
       <c r="E11" t="n">
-        <v>2.22035814681514e-14</v>
+        <v>4.319710880059146e-08</v>
       </c>
       <c r="F11" t="n">
-        <v>2.22035814681514e-14</v>
+        <v>2.220012691487252e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9998019462446197</v>
+        <v>0.9989749666707028</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -858,26 +858,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002139915.1_15.fasta</t>
+          <t>RS_GCF_000736415.1_11.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999861532733786</v>
+        <v>0.9503757659584605</v>
       </c>
       <c r="C12" t="n">
-        <v>1.384672655467671e-05</v>
+        <v>0.04626947233798669</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220439900318162e-14</v>
+        <v>4.062516897922424e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220439900318162e-14</v>
+        <v>0.003354355451839217</v>
       </c>
       <c r="F12" t="n">
-        <v>2.220439900318162e-14</v>
+        <v>2.373691142164717e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9999861532733786</v>
+        <v>0.9503757659584605</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -888,26 +888,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013372145.1_11.fasta</t>
+          <t>RS_GCF_013372165.1_16.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999178088165579</v>
+        <v>0.9781147102630502</v>
       </c>
       <c r="C13" t="n">
-        <v>8.219118337559296e-05</v>
+        <v>0.005915534331150726</v>
       </c>
       <c r="D13" t="n">
-        <v>2.220409557832797e-14</v>
+        <v>0.0158217821508599</v>
       </c>
       <c r="E13" t="n">
-        <v>2.220409557832797e-14</v>
+        <v>0.0001479732548622217</v>
       </c>
       <c r="F13" t="n">
-        <v>2.220409557832797e-14</v>
+        <v>7.705983712142878e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9999178088165579</v>
+        <v>0.9781147102630502</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -918,26 +918,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013372145.1_13.fasta</t>
+          <t>RS_GCF_900753405.1_11.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999560175657027</v>
+        <v>0.9996146263283121</v>
       </c>
       <c r="C14" t="n">
-        <v>4.398243423070132e-05</v>
+        <v>1.375005766937303e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>2.220426519645765e-14</v>
+        <v>1.553361178268777e-08</v>
       </c>
       <c r="E14" t="n">
-        <v>2.220426519645765e-14</v>
+        <v>0.000385220637469583</v>
       </c>
       <c r="F14" t="n">
-        <v>2.220426519645765e-14</v>
+        <v>2.981890977417934e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9999560175657027</v>
+        <v>0.9996146263283121</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -948,26 +948,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013372165.1_19.fasta</t>
+          <t>GB_GCA_000495505.1_14.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999960150678471</v>
+        <v>0.9877339448543263</v>
       </c>
       <c r="C15" t="n">
-        <v>3.984932086405963e-06</v>
+        <v>0.002436922708449277</v>
       </c>
       <c r="D15" t="n">
-        <v>2.220444279605598e-14</v>
+        <v>0.009829132437180071</v>
       </c>
       <c r="E15" t="n">
-        <v>2.220444279605598e-14</v>
+        <v>2.220047025057036e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>2.220444279605598e-14</v>
+        <v>2.220047025057036e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9999960150678471</v>
+        <v>0.9877339448543263</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -978,26 +978,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900753405.1_13.fasta</t>
+          <t>RS_GCF_002139935.1_13.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.9952704807359439</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.0008200022236328451</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.003909517040378873</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.220023327379529e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.220023327379529e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.9952704807359439</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1008,26 +1008,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900753405.1_16.fasta</t>
+          <t>RS_GCF_002139935.1_19.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.9958244682383615</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.003101786531528662</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.001073745230065433</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.220085111713809e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.220085111713809e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.9958244682383615</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1038,26 +1038,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900319915.1_6.fasta</t>
+          <t>RS_GCF_900753405.1_19.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.9964543865866701</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.634628882535052e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.003545449950397276</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.219843651205403e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.219843651205403e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.9964543865866701</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1068,26 +1068,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002139875.1_4.fasta</t>
+          <t>GB_GCA_001816265.1_5.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.9819970437814204</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.001453912356427393</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.01654904386210765</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.219442178178468e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.219442178178468e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.9819970437814204</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1098,26 +1098,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002139875.1_7.fasta</t>
+          <t>GB_GCA_002317305.1_9.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0.9909724255967535</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.08954963254841e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.009026665448238842</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2.219848391660877e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.219848391660877e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.9909724255967535</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1128,26 +1128,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002139935.1_14.fasta</t>
+          <t>GB_GCA_900319915.1_13.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.9667279086953058</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2.219894999229911e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.03327209130462749</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2.219894999229911e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.219894999229911e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.9667279086953058</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1158,26 +1158,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002139935.1_17.fasta</t>
+          <t>RS_GCF_000736415.1_3.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.8482665615245373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.1516562562778295</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>7.718219758892288e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.217614687803685e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.217614687803685e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.8482665615245373</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1188,26 +1188,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002139935.1_7.fasta</t>
+          <t>RS_GCF_000736415.1_4.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.8726901237204369</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.126927996711187</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.0003818795683318998</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.216462304223783e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.216462304223783e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.8726901237204369</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1218,86 +1218,86 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013416015.1_19.fasta</t>
+          <t>GB_GCA_900319915.1_6.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1607410388717929</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1607410388717929</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3570358445128279</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.160741038871793</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.160741038871793</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3570358445128279</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>g__Campylobacter_B</t>
+          <t>g__Campylobacter</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013416015.1_3.fasta</t>
+          <t>RS_GCF_002139875.1_4.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1607410388717929</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1607410388717929</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3570358445128279</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.160741038871793</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.160741038871793</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3570358445128279</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>g__Campylobacter_B</t>
+          <t>g__Campylobacter</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001816265.1_5.fasta</t>
+          <t>RS_GCF_002139875.1_7.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9819970437814204</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001453912356427393</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01654904386210765</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2.219442178178468e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.219442178178468e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9819970437814204</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1308,26 +1308,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002317305.1_9.fasta</t>
+          <t>RS_GCF_002139935.1_14.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9909724255967535</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>9.08954963254841e-07</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.009026665448238842</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.219848391660877e-14</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.219848391660877e-14</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9909724255967535</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1338,26 +1338,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900319915.1_13.fasta</t>
+          <t>RS_GCF_002139935.1_17.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9667279086953058</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2.219894999229911e-14</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03327209130462749</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.219894999229911e-14</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.219894999229911e-14</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9667279086953058</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1368,26 +1368,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000736415.1_3.fasta</t>
+          <t>RS_GCF_002139935.1_7.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8482665615245373</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1516562562778295</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.718219758892288e-05</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.217614687803685e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.217614687803685e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8482665615245373</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1398,86 +1398,86 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000736415.1_4.fasta</t>
+          <t>RS_GCF_013416015.1_19.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8726901237204369</v>
+        <v>0.1607410388717929</v>
       </c>
       <c r="C30" t="n">
-        <v>0.126927996711187</v>
+        <v>0.1607410388717929</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0003818795683318998</v>
+        <v>0.3570358445128279</v>
       </c>
       <c r="E30" t="n">
-        <v>2.216462304223783e-14</v>
+        <v>0.160741038871793</v>
       </c>
       <c r="F30" t="n">
-        <v>2.216462304223783e-14</v>
+        <v>0.160741038871793</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8726901237204369</v>
+        <v>0.3570358445128279</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>g__Campylobacter</t>
+          <t>g__Campylobacter_B</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_000495505.1_14.fasta</t>
+          <t>RS_GCF_013416015.1_3.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9937545208000025</v>
+        <v>0.1607410388717929</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002549846569813749</v>
+        <v>0.1607410388717929</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003695632630139487</v>
+        <v>0.3570358445128279</v>
       </c>
       <c r="E31" t="n">
-        <v>2.220256325360346e-14</v>
+        <v>0.160741038871793</v>
       </c>
       <c r="F31" t="n">
-        <v>2.220256325360346e-14</v>
+        <v>0.160741038871793</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9937545208000025</v>
+        <v>0.3570358445128279</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>g__Campylobacter</t>
+          <t>g__Campylobacter_B</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002139935.1_13.fasta</t>
+          <t>GB_GCA_001816265.1_9.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9978294289029918</v>
+        <v>0.9985288496037231</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0009182266214950496</v>
+        <v>0.001471150396210315</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001252344475468712</v>
+        <v>2.219840433612748e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>2.219972797491394e-14</v>
+        <v>2.219840433612748e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>2.219972797491394e-14</v>
+        <v>2.219840433612748e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9978294289029918</v>
+        <v>0.9985288496037231</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1488,26 +1488,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002139935.1_19.fasta</t>
+          <t>RS_GCF_002139875.1_12.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9967521839961299</v>
+        <v>0.9987361409300241</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003044049360737349</v>
+        <v>0.001263859069909238</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0002037666430882901</v>
+        <v>2.219886864723651e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>2.219899698265116e-14</v>
+        <v>2.219886864723651e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>2.219899698265116e-14</v>
+        <v>2.219886864723651e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9967521839961299</v>
+        <v>0.9987361409300241</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1518,26 +1518,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900753405.1_19.fasta</t>
+          <t>RS_GCF_002139915.1_15.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9985657571152465</v>
+        <v>0.9998493976636598</v>
       </c>
       <c r="C34" t="n">
-        <v>1.152907882076812e-07</v>
+        <v>0.0001506023362736234</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001434127593920967</v>
+        <v>2.220379197924945e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>2.219840626513565e-14</v>
+        <v>2.220379197924945e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>2.219840626513565e-14</v>
+        <v>2.220379197924945e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9985657571152465</v>
+        <v>0.9998493976636598</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1548,26 +1548,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001816265.1_17.fasta</t>
+          <t>RS_GCF_013372145.1_11.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9723667530396974</v>
+        <v>0.999374048313139</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02490628693846077</v>
+        <v>0.0006259516867942616</v>
       </c>
       <c r="D35" t="n">
-        <v>2.319712359805651e-13</v>
+        <v>2.220168581367587e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002726960021377844</v>
+        <v>2.220168581367587e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>2.31971235980565e-13</v>
+        <v>2.220168581367587e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9723667530396974</v>
+        <v>0.999374048313139</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1578,26 +1578,26 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900319915.1_12.fasta</t>
+          <t>RS_GCF_013372145.1_13.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9999999726356383</v>
+        <v>0.999620331338924</v>
       </c>
       <c r="C36" t="n">
-        <v>6.430254103474196e-12</v>
+        <v>0.0003796686610094263</v>
       </c>
       <c r="D36" t="n">
-        <v>2.220642418361596e-14</v>
+        <v>2.220277630294331e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>2.735788695671353e-08</v>
+        <v>2.220277630294331e-14</v>
       </c>
       <c r="F36" t="n">
-        <v>2.220642418361596e-14</v>
+        <v>2.220277630294331e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9999999726356383</v>
+        <v>0.999620331338924</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1608,26 +1608,26 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000736415.1_11.fasta</t>
+          <t>RS_GCF_013372165.1_19.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9443466764508932</v>
+        <v>0.9999444205727289</v>
       </c>
       <c r="C37" t="n">
-        <v>0.05211215913389079</v>
+        <v>5.557942720437449e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>2.878669551090637e-14</v>
+        <v>2.220421371050432e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003541164415158394</v>
+        <v>2.220421371050432e-14</v>
       </c>
       <c r="F37" t="n">
-        <v>2.878669551090651e-14</v>
+        <v>2.220421371050432e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9443466764508932</v>
+        <v>0.9999444205727289</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1638,26 +1638,26 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013372165.1_16.fasta</t>
+          <t>RS_GCF_900753405.1_13.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9775905904842999</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02116862517220442</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.738666022858603e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001240784341748019</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.738666022858602e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9775905904842999</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1668,26 +1668,26 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900753405.1_11.fasta</t>
+          <t>RS_GCF_900753405.1_16.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9994180589732822</v>
+        <v>0.9999999999937129</v>
       </c>
       <c r="C39" t="n">
-        <v>4.280295348173586e-07</v>
+        <v>6.22036490363708e-12</v>
       </c>
       <c r="D39" t="n">
-        <v>6.02299636075489e-14</v>
+        <v>2.220446049247491e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005815129970625593</v>
+        <v>2.220446049247491e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>6.022996360754889e-14</v>
+        <v>2.220446049247491e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9994180589732822</v>
+        <v>0.9999999999937129</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0004457019270784996</v>
+        <v>0.0004570160342304244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9982171922916859</v>
+        <v>0.9981719358630784</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004457019270785047</v>
+        <v>0.00045701603423043</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0004457019270785005</v>
+        <v>0.0004570160342304251</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004457019270785068</v>
+        <v>0.0004570160342304308</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9982171922916859</v>
+        <v>0.9981719358630784</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1793,22 +1793,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0008504573492720357</v>
+        <v>0.001865991999896807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996598170602912</v>
+        <v>0.9925360320004126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008504573492720454</v>
+        <v>0.00186599199989682</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0008504573492720321</v>
+        <v>0.001865991999896808</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008504573492720442</v>
+        <v>0.001865991999896825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.996598170602912</v>
+        <v>0.9925360320004126</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004442501778924106</v>
+        <v>0.0004459986137802531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9982229992884305</v>
+        <v>0.9982160055448789</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004442501778924151</v>
+        <v>0.0004459986137802574</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0004442501778924113</v>
+        <v>0.0004459986137802505</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004442501778924163</v>
+        <v>0.0004459986137802572</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9982229992884305</v>
+        <v>0.9982160055448789</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1853,22 +1853,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0004452545556132078</v>
+        <v>0.0004540127514533443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.998218981777547</v>
+        <v>0.9981839489941867</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004452545556132132</v>
+        <v>0.0004540127514533521</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0004452545556132063</v>
+        <v>0.000454012751453343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004452545556132117</v>
+        <v>0.0004540127514533519</v>
       </c>
       <c r="G5" t="n">
-        <v>0.998218981777547</v>
+        <v>0.9981839489941867</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1883,22 +1883,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0004441175820714604</v>
+        <v>0.0004443944092486624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9982235296717141</v>
+        <v>0.9982224223630054</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0004441175820714652</v>
+        <v>0.0004443944092486681</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004441175820714632</v>
+        <v>0.0004443944092486603</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0004441175820714688</v>
+        <v>0.0004443944092486667</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9982235296717141</v>
+        <v>0.9982224223630054</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1909,26 +1909,26 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000344295.2_12.fasta</t>
+          <t>RS_GCF_002022005.1_8.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0004457019270784996</v>
+        <v>0.09884962727787072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9982171922916859</v>
+        <v>0.6048241598462559</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0004457019270785047</v>
+        <v>0.008761823627072266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004457019270785005</v>
+        <v>0.2875643892483652</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004457019270785068</v>
+        <v>4.358441622856081e-13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9982171922916859</v>
+        <v>0.6048241598462559</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1939,26 +1939,26 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_001298465.1_10.fasta</t>
+          <t>RS_GCF_002914195.1_10.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008504573492720357</v>
+        <v>0.01393925995029039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.996598170602912</v>
+        <v>0.9849888063122019</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0008504573492720454</v>
+        <v>0.0009525107788589804</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0008504573492720321</v>
+        <v>0.0001194229585466781</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0008504573492720442</v>
+        <v>1.020712961901355e-13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.996598170602912</v>
+        <v>0.9849888063122019</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1969,26 +1969,26 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002914005.1_18.fasta</t>
+          <t>RS_GCF_003048575.1_0.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004442501778924106</v>
+        <v>0.002832691788808862</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9982229992884305</v>
+        <v>0.9970611806222234</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0004442501778924151</v>
+        <v>6.001724739470794e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0004442501778924113</v>
+        <v>4.611034154564023e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004442501778924163</v>
+        <v>2.739499916331267e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9982229992884305</v>
+        <v>0.9970611806222234</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1999,26 +1999,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004803835.1_15.fasta</t>
+          <t>RS_GCF_013372205.1_5.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004452545556132078</v>
+        <v>0.04507824857103394</v>
       </c>
       <c r="C10" t="n">
-        <v>0.998218981777547</v>
+        <v>0.9531148863274779</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0004452545556132132</v>
+        <v>0.0004184521362694258</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004452545556132063</v>
+        <v>0.001388412965091346</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004452545556132117</v>
+        <v>1.273268174256096e-13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.998218981777547</v>
+        <v>0.9531148863274779</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2029,26 +2029,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902460875.1_16.fasta</t>
+          <t>RS_GCF_002021925.1_8.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0004441175820714604</v>
+        <v>0.1627814386684975</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9982235296717141</v>
+        <v>0.3273355334541271</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0004441175820714652</v>
+        <v>0.1843201505403805</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0004441175820714632</v>
+        <v>0.1627814386684975</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004441175820714688</v>
+        <v>0.1627814386684975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9982235296717141</v>
+        <v>0.3273355334541271</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2059,26 +2059,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003048575.1_18.fasta</t>
+          <t>RS_GCF_002165775.1_1.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>8.172166391277625e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.9909746998471131</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.009025300152641778</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8.172166391277602e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>8.172166391277658e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9909746998471131</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2089,26 +2089,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003048965.1_19.fasta</t>
+          <t>RS_GCF_003048675.1_5.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.223195972467552e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9989445748851811</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.001055425114752281</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.223195972467552e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.223195972467552e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.9989445748851811</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2119,26 +2119,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013201975.1_12.fasta</t>
+          <t>RS_GCF_003049085.1_14.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.219852850518227e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9902111142712172</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.009788885728716293</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.219852850518227e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.219852850518227e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9902111142712172</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2149,26 +2149,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013372205.1_1.fasta</t>
+          <t>RS_GCF_004803795.1_1.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3.55182859334629e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.9884908896685106</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.01150911033138284</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3.551828593346289e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3.551828593346297e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.9884908896685106</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2179,26 +2179,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902460705.1_3.fasta</t>
+          <t>RS_GCF_004803835.1_16.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.406799654549659e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.9339858013008197</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.06601419869815828</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.406799654549656e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.40679965454966e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.9339858013008197</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2209,26 +2209,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902460875.1_12.fasta</t>
+          <t>RS_GCF_900573985.1_19.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.525513133703006e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.9503084293764488</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.04969157062129342</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.525513133703e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.525513133703013e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.9503084293764488</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2239,26 +2239,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000466685.1_15.fasta</t>
+          <t>RS_GCF_900699785.1_15.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.219844412423067e-14</v>
+        <v>7.452491088947944e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9946599890167855</v>
+        <v>0.8927969396139831</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005340010983147948</v>
+        <v>0.1072030603857934</v>
       </c>
       <c r="E18" t="n">
-        <v>2.219844412423067e-14</v>
+        <v>7.452491088947954e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>2.219844412423067e-14</v>
+        <v>7.452491088947956e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9946599890167855</v>
+        <v>0.8927969396139831</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2269,26 +2269,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002913305.1_19.fasta</t>
+          <t>RS_GCF_000466685.1_15.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.219845103112858e-14</v>
+        <v>2.219844412423067e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9952425795307349</v>
+        <v>0.9946599890167855</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004757420469198417</v>
+        <v>0.005340010983147948</v>
       </c>
       <c r="E19" t="n">
-        <v>2.219845103112858e-14</v>
+        <v>2.219844412423067e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>2.219845103112858e-14</v>
+        <v>2.219844412423067e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9952425795307349</v>
+        <v>0.9946599890167855</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2299,26 +2299,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002913945.1_19.fasta</t>
+          <t>RS_GCF_002913305.1_19.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.219901706088915e-14</v>
+        <v>2.219845103112858e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9611504380641406</v>
+        <v>0.9952425795307349</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03884956193579278</v>
+        <v>0.004757420469198417</v>
       </c>
       <c r="E20" t="n">
-        <v>2.219901706088915e-14</v>
+        <v>2.219845103112858e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>2.219901706088915e-14</v>
+        <v>2.219845103112858e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9611504380641406</v>
+        <v>0.9952425795307349</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2329,26 +2329,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002914195.1_18.fasta</t>
+          <t>RS_GCF_002913945.1_19.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.21986113543868e-14</v>
+        <v>2.219901706088915e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9869035473805279</v>
+        <v>0.9611504380641406</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01309645261940543</v>
+        <v>0.03884956193579278</v>
       </c>
       <c r="E21" t="n">
-        <v>2.21986113543868e-14</v>
+        <v>2.219901706088915e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>2.21986113543868e-14</v>
+        <v>2.219901706088915e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9869035473805279</v>
+        <v>0.9611504380641406</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2359,26 +2359,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003048835.1_3.fasta</t>
+          <t>RS_GCF_002914195.1_18.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.219847333938538e-14</v>
+        <v>2.21986113543868e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9935234476355925</v>
+        <v>0.9869035473805279</v>
       </c>
       <c r="D22" t="n">
-        <v>0.006476552364340965</v>
+        <v>0.01309645261940543</v>
       </c>
       <c r="E22" t="n">
-        <v>2.219847333938538e-14</v>
+        <v>2.21986113543868e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>2.219847333938538e-14</v>
+        <v>2.21986113543868e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9935234476355925</v>
+        <v>0.9869035473805279</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2389,26 +2389,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_014253065.1_7.fasta</t>
+          <t>RS_GCF_003048835.1_3.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.219897398877573e-14</v>
+        <v>2.219847333938538e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9631101357675539</v>
+        <v>0.9935234476355925</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03688986423237964</v>
+        <v>0.006476552364340965</v>
       </c>
       <c r="E23" t="n">
-        <v>2.219897398877573e-14</v>
+        <v>2.219847333938538e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>2.219897398877573e-14</v>
+        <v>2.219847333938538e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9631101357675539</v>
+        <v>0.9935234476355925</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2419,26 +2419,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_902460415.1_7.fasta</t>
+          <t>RS_GCF_014253065.1_7.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.219854730843478e-14</v>
+        <v>2.219897398877573e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9859572465702654</v>
+        <v>0.9631101357675539</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01404275342966788</v>
+        <v>0.03688986423237964</v>
       </c>
       <c r="E24" t="n">
-        <v>2.219854730843478e-14</v>
+        <v>2.219897398877573e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>2.219854730843478e-14</v>
+        <v>2.219897398877573e-14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9859572465702654</v>
+        <v>0.9631101357675539</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2449,26 +2449,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002021925.1_8.fasta</t>
+          <t>RS_GCF_902460415.1_7.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.156957846078309</v>
+        <v>2.219854730843478e-14</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3628047672369527</v>
+        <v>0.9859572465702654</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1663216945281204</v>
+        <v>0.01404275342966788</v>
       </c>
       <c r="E25" t="n">
-        <v>0.156957846078309</v>
+        <v>2.219854730843478e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.156957846078309</v>
+        <v>2.219854730843478e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3628047672369527</v>
+        <v>0.9859572465702654</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2479,26 +2479,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002165775.1_1.fasta</t>
+          <t>RS_GCF_003048575.1_18.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.100801456263804e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9969041460053772</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00309585399429257</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.100801456263806e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.100801456263818e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9969041460053772</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2509,26 +2509,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003048675.1_5.fasta</t>
+          <t>RS_GCF_003048965.1_19.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.222105694070118e-14</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9998434142617793</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001565857381541338</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.222105694070119e-14</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.222105694070119e-14</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9998434142617793</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2539,26 +2539,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003049085.1_14.fasta</t>
+          <t>RS_GCF_013201975.1_12.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.220279108352635e-14</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9965696009192782</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003430399080655155</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.220279108352635e-14</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.220279108352635e-14</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9965696009192782</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2569,26 +2569,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004803795.1_1.fasta</t>
+          <t>RS_GCF_013372205.1_1.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.078460985245148e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9959709757072781</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004029024292599643</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>4.078460985245156e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4.078460985245176e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9959709757072781</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2599,26 +2599,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004803835.1_16.fasta</t>
+          <t>RS_GCF_902460705.1_3.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.003883979021085e-13</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.964989798273447</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03501020172535208</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4.003883979021156e-13</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4.003883979021178e-13</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.964989798273447</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2629,26 +2629,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900573985.1_19.fasta</t>
+          <t>RS_GCF_902460875.1_12.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.097889419073892e-12</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9745513243550923</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02544867564161419</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.097889419073894e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.097889419073899e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9745513243550923</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2659,26 +2659,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900699785.1_15.fasta</t>
+          <t>RS_GCF_000344295.2_12.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.509183544552568e-14</v>
+        <v>0.0004570160342304244</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9359446463318264</v>
+        <v>0.9981719358630784</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06405535366800837</v>
+        <v>0.00045701603423043</v>
       </c>
       <c r="E32" t="n">
-        <v>5.50918354455252e-14</v>
+        <v>0.0004570160342304251</v>
       </c>
       <c r="F32" t="n">
-        <v>5.509183544552523e-14</v>
+        <v>0.0004570160342304308</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9359446463318264</v>
+        <v>0.9981719358630784</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2689,26 +2689,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002022005.1_8.fasta</t>
+          <t>RS_GCF_001298465.1_10.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1041215994850872</v>
+        <v>0.001865991999896807</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5985751155639613</v>
+        <v>0.9925360320004126</v>
       </c>
       <c r="D33" t="n">
-        <v>5.810373393995178e-13</v>
+        <v>0.00186599199989682</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2973032849497894</v>
+        <v>0.001865991999896808</v>
       </c>
       <c r="F33" t="n">
-        <v>5.810373393995178e-13</v>
+        <v>0.001865991999896825</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5985751155639613</v>
+        <v>0.9925360320004126</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2719,26 +2719,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002914195.1_10.fasta</t>
+          <t>RS_GCF_002914005.1_18.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01672098616749876</v>
+        <v>0.0004459986137802531</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9830674352602835</v>
+        <v>0.9982160055448789</v>
       </c>
       <c r="D34" t="n">
-        <v>2.383724774103275e-13</v>
+        <v>0.0004459986137802574</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00021157857174088</v>
+        <v>0.0004459986137802505</v>
       </c>
       <c r="F34" t="n">
-        <v>2.383724774103277e-13</v>
+        <v>0.0004459986137802572</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9830674352602835</v>
+        <v>0.9982160055448789</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2749,26 +2749,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_003048575.1_0.fasta</t>
+          <t>RS_GCF_004803835.1_15.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.003306149690895749</v>
+        <v>0.0004540127514533443</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9966346054577025</v>
+        <v>0.9981839489941867</v>
       </c>
       <c r="D35" t="n">
-        <v>4.581434181883449e-14</v>
+        <v>0.0004540127514533521</v>
       </c>
       <c r="E35" t="n">
-        <v>5.924485130992798e-05</v>
+        <v>0.000454012751453343</v>
       </c>
       <c r="F35" t="n">
-        <v>4.581434181883733e-14</v>
+        <v>0.0004540127514533519</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9966346054577025</v>
+        <v>0.9981839489941867</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2779,26 +2779,26 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013372205.1_5.fasta</t>
+          <t>RS_GCF_902460875.1_16.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.04925985460890863</v>
+        <v>0.0004443944092486624</v>
       </c>
       <c r="C36" t="n">
-        <v>0.948853542104613</v>
+        <v>0.9982224223630054</v>
       </c>
       <c r="D36" t="n">
-        <v>2.14233382739476e-13</v>
+        <v>0.0004443944092486681</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001886603286049971</v>
+        <v>0.0004443944092486603</v>
       </c>
       <c r="F36" t="n">
-        <v>2.142333827394781e-13</v>
+        <v>0.0004443944092486667</v>
       </c>
       <c r="G36" t="n">
-        <v>0.948853542104613</v>
+        <v>0.9982224223630054</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2874,22 +2874,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220365547914912e-14</v>
+        <v>2.219924674270483e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001813693892237233</v>
+        <v>0.001178104908586071</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9998186306107096</v>
+        <v>0.9988218950913473</v>
       </c>
       <c r="E2" t="n">
-        <v>2.220365547914912e-14</v>
+        <v>2.219924674270483e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220365547914912e-14</v>
+        <v>2.219924674270483e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9998186306107096</v>
+        <v>0.9988218950913473</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.219942161550912e-14</v>
+        <v>2.219842852173794e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001138457487493975</v>
+        <v>0.003244519396441056</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9988615425124394</v>
+        <v>0.9967554806034923</v>
       </c>
       <c r="E3" t="n">
-        <v>2.219942161550912e-14</v>
+        <v>2.219842852173794e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.219942161550912e-14</v>
+        <v>2.219842852173794e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9988615425124394</v>
+        <v>0.9967554806034923</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2934,22 +2934,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220438959018672e-14</v>
+        <v>2.2203711304849e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>1.596652995206122e-05</v>
+        <v>0.0001687856330092911</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999840334699812</v>
+        <v>0.9998312143669242</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220438959018672e-14</v>
+        <v>2.2203711304849e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220438959018672e-14</v>
+        <v>2.2203711304849e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9999840334699812</v>
+        <v>0.9998312143669242</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2964,22 +2964,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.219845292463459e-14</v>
+        <v>2.219854972149506e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005448130923644883</v>
+        <v>0.01447859248910787</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9945518690762886</v>
+        <v>0.9855214075108256</v>
       </c>
       <c r="E5" t="n">
-        <v>2.219845292463459e-14</v>
+        <v>2.219854972149506e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.219845292463459e-14</v>
+        <v>2.219854972149506e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9945518690762886</v>
+        <v>0.9855214075108256</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2990,26 +2990,26 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012728225.1_2.fasta</t>
+          <t>GB_GCA_900539505.1_1.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220365547914912e-14</v>
+        <v>0.01151436480933469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001813693892237233</v>
+        <v>2.789429830969513e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998186306107096</v>
+        <v>0.9884646725308006</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220365547914912e-14</v>
+        <v>1.817323001138398e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220365547914912e-14</v>
+        <v>2.219782959962463e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9998186306107096</v>
+        <v>0.9884646725308006</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3020,26 +3020,26 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_001190745.1_12.fasta</t>
+          <t>RS_GCF_000017585.1_14.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.219942161550912e-14</v>
+        <v>0.00125415652718378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001138457487493975</v>
+        <v>0.004850298786920317</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9988615425124394</v>
+        <v>0.966209356498289</v>
       </c>
       <c r="E7" t="n">
-        <v>2.219942161550912e-14</v>
+        <v>0.02768618818758454</v>
       </c>
       <c r="F7" t="n">
-        <v>2.219942161550912e-14</v>
+        <v>2.21974181555974e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9988615425124394</v>
+        <v>0.966209356498289</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3050,26 +3050,26 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_009690845.1_13.fasta</t>
+          <t>RS_GCF_000413435.1_7.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220438959018672e-14</v>
+        <v>2.010139916481842e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>1.596652995206122e-05</v>
+        <v>0.002593592453070625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999840334699812</v>
+        <v>0.9875905320847492</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220438959018672e-14</v>
+        <v>0.009795774062993087</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220438959018672e-14</v>
+        <v>2.220067333955648e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999840334699812</v>
+        <v>0.9875905320847492</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3080,26 +3080,26 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013201895.1_5.fasta</t>
+          <t>RS_GCF_001190745.1_0.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.219845292463459e-14</v>
+        <v>0.001592368802206843</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005448130923644883</v>
+        <v>0.02134247594927279</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9945518690762886</v>
+        <v>0.9754500897271665</v>
       </c>
       <c r="E9" t="n">
-        <v>2.219845292463459e-14</v>
+        <v>0.00161506552133153</v>
       </c>
       <c r="F9" t="n">
-        <v>2.219845292463459e-14</v>
+        <v>2.219412031962941e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9945518690762886</v>
+        <v>0.9754500897271665</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3110,26 +3110,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012728225.1_17.fasta</t>
+          <t>RS_GCF_008245005.1_12.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.003597611362470493</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.003318631040620089</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9928606855542134</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.0002230720426738965</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.220303095218986e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.9928606855542134</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3140,26 +3140,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900539505.1_14.fasta</t>
+          <t>RS_GCF_009690845.1_11.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5.423241470240001e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.01516492916067694</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9845294040342184</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.0002514343903798859</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.219446803559363e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.9845294040342184</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3170,26 +3170,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900539505.1_5.fasta</t>
+          <t>RS_GCF_013201685.1_14.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.06563996132010699</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.01383533275272127</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.92043383049947</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>9.087542767938111e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.220620924339236e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.92043383049947</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3200,26 +3200,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_009690845.1_10.fasta</t>
+          <t>GB_GCA_012728225.1_18.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.219860073305173e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.01505566337455809</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9849443366253754</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.219860073305173e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.219860073305173e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.9849443366253754</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -3230,26 +3230,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013201895.1_10.fasta</t>
+          <t>RS_GCF_000017585.1_1.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.764343679151899e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.01113696034448984</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9888630396553073</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.764343679151897e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.764343679151912e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9888630396553073</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3260,26 +3260,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012728225.1_12.fasta</t>
+          <t>RS_GCF_000017585.1_4.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.709994550247725e-14</v>
+        <v>2.412424422898787e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002436579280511744</v>
+        <v>0.01334297934032985</v>
       </c>
       <c r="D15" t="n">
-        <v>0.997563420719347</v>
+        <v>0.9866570206595979</v>
       </c>
       <c r="E15" t="n">
-        <v>4.709994550247694e-14</v>
+        <v>2.412424422898785e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>4.709994550247735e-14</v>
+        <v>2.412424422898788e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.997563420719347</v>
+        <v>0.9866570206595979</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3290,26 +3290,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000413435.1_1.fasta</t>
+          <t>RS_GCF_000413435.1_16.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.221853409503729e-14</v>
+        <v>2.219845715266899e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>1.578252744647033e-06</v>
+        <v>0.005495256327669275</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999984217471888</v>
+        <v>0.994504743672264</v>
       </c>
       <c r="E16" t="n">
-        <v>2.221853409503729e-14</v>
+        <v>2.219845715266899e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>2.221853409503729e-14</v>
+        <v>2.219845715266899e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9999984217471888</v>
+        <v>0.994504743672264</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -3320,26 +3320,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000413435.1_4.fasta</t>
+          <t>RS_GCF_002220775.1_4.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0005267099900891569</v>
+        <v>2.219846992262394e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005272746863705706</v>
+        <v>0.005380693411140302</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9978925953433619</v>
+        <v>0.9946193065887932</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0005267099900891517</v>
+        <v>2.219846992262394e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0005267099900891582</v>
+        <v>2.219846992262394e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9978925953433619</v>
+        <v>0.9946193065887932</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -3350,26 +3350,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_001190745.1_5.fasta</t>
+          <t>RS_GCF_008245005.1_11.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.22363243179907e-14</v>
+        <v>2.219845289059126e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>3.281811477879918e-05</v>
+        <v>0.005412527211818623</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999671818851547</v>
+        <v>0.9945874727881149</v>
       </c>
       <c r="E18" t="n">
-        <v>2.22363243179907e-14</v>
+        <v>2.219845289059126e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>2.22363243179907e-14</v>
+        <v>2.219845289059126e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9999671818851547</v>
+        <v>0.9945874727881149</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -3380,26 +3380,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013372225.1_14.fasta</t>
+          <t>RS_GCF_009690845.1_2.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.22094271620811e-14</v>
+        <v>2.219859747854296e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>8.14529975539803e-06</v>
+        <v>0.01469048411108991</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999918547001779</v>
+        <v>0.9853095158888435</v>
       </c>
       <c r="E19" t="n">
-        <v>2.22094271620811e-14</v>
+        <v>2.219859747854296e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>2.22094271620811e-14</v>
+        <v>2.219859747854296e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9999918547001779</v>
+        <v>0.9853095158888435</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3410,26 +3410,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012728225.1_18.fasta</t>
+          <t>RS_GCF_013201645.1_13.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.219852489587665e-14</v>
+        <v>2.219843951886208e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01216101733291629</v>
+        <v>0.004956728839111375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9878389826670171</v>
+        <v>0.995043271160822</v>
       </c>
       <c r="E20" t="n">
-        <v>2.219852489587665e-14</v>
+        <v>2.219843951886208e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>2.219852489587665e-14</v>
+        <v>2.219843951886208e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9878389826670171</v>
+        <v>0.995043271160822</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -3440,26 +3440,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000017585.1_1.fasta</t>
+          <t>RS_GCF_013201645.1_14.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.219846243630197e-14</v>
+        <v>2.219851266140565e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004989608172026198</v>
+        <v>0.007842506461895367</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9950103918279072</v>
+        <v>0.9921574935380379</v>
       </c>
       <c r="E21" t="n">
-        <v>2.219846243630197e-14</v>
+        <v>2.219851266140565e-14</v>
       </c>
       <c r="F21" t="n">
-        <v>2.219846243630197e-14</v>
+        <v>2.219851266140565e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9950103918279072</v>
+        <v>0.9921574935380379</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3470,26 +3470,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000017585.1_4.fasta</t>
+          <t>GB_GCA_012728225.1_12.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.219850171858728e-14</v>
+        <v>4.709994550247725e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008178601717526539</v>
+        <v>0.002436579280511744</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9918213982824069</v>
+        <v>0.997563420719347</v>
       </c>
       <c r="E22" t="n">
-        <v>2.219850171858728e-14</v>
+        <v>4.709994550247694e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>2.219850171858728e-14</v>
+        <v>4.709994550247735e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9918213982824069</v>
+        <v>0.997563420719347</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -3500,26 +3500,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000413435.1_16.fasta</t>
+          <t>RS_GCF_000413435.1_1.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.219844619994996e-14</v>
+        <v>2.221853409503729e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005145550740386165</v>
+        <v>1.578252744647033e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9948544492595472</v>
+        <v>0.9999984217471888</v>
       </c>
       <c r="E23" t="n">
-        <v>2.219844619994996e-14</v>
+        <v>2.221853409503729e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>2.219844619994996e-14</v>
+        <v>2.221853409503729e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9948544492595472</v>
+        <v>0.9999984217471888</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -3530,26 +3530,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002220775.1_4.fasta</t>
+          <t>RS_GCF_000413435.1_4.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.219844039024141e-14</v>
+        <v>0.0005267099900891569</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004824893657810436</v>
+        <v>0.0005272746863705706</v>
       </c>
       <c r="D24" t="n">
-        <v>0.995175106342123</v>
+        <v>0.9978925953433619</v>
       </c>
       <c r="E24" t="n">
-        <v>2.219844039024141e-14</v>
+        <v>0.0005267099900891517</v>
       </c>
       <c r="F24" t="n">
-        <v>2.219844039024141e-14</v>
+        <v>0.0005267099900891582</v>
       </c>
       <c r="G24" t="n">
-        <v>0.995175106342123</v>
+        <v>0.9978925953433619</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -3560,26 +3560,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_008245005.1_11.fasta</t>
+          <t>RS_GCF_001190745.1_5.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.219843897083434e-14</v>
+        <v>2.22363243179907e-14</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004872767014601936</v>
+        <v>3.281811477879918e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9951272329853315</v>
+        <v>0.9999671818851547</v>
       </c>
       <c r="E25" t="n">
-        <v>2.219843897083434e-14</v>
+        <v>2.22363243179907e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>2.219843897083434e-14</v>
+        <v>2.22363243179907e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9951272329853315</v>
+        <v>0.9999671818851547</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -3590,26 +3590,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_009690845.1_2.fasta</t>
+          <t>RS_GCF_013372225.1_14.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.219860505163516e-14</v>
+        <v>2.22094271620811e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01561577316924201</v>
+        <v>8.14529975539803e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9843842268306914</v>
+        <v>0.9999918547001779</v>
       </c>
       <c r="E26" t="n">
-        <v>2.219860505163516e-14</v>
+        <v>2.22094271620811e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>2.219860505163516e-14</v>
+        <v>2.22094271620811e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9843842268306914</v>
+        <v>0.9999918547001779</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -3620,26 +3620,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013201645.1_13.fasta</t>
+          <t>GB_GCA_012728225.1_17.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.219844350329535e-14</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004291624379302611</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9957083756206309</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>2.219844350329535e-14</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.219844350329535e-14</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9957083756206309</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -3650,26 +3650,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013201645.1_14.fasta</t>
+          <t>GB_GCA_900539505.1_14.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.219849785864681e-14</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00752441974591269</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9924755802540207</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>2.219849785864681e-14</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.219849785864681e-14</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9924755802540207</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -3680,26 +3680,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900539505.1_1.fasta</t>
+          <t>GB_GCA_900539505.1_5.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009539148152636677</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.060731913682687e-06</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9904410650076061</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1.572610782150591e-05</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.219807589672862e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9904410650076061</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -3710,26 +3710,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000017585.1_14.fasta</t>
+          <t>RS_GCF_009690845.1_10.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0009899592581182571</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005073307081074237</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9680393714242221</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02589736223656324</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.219920098815579e-14</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9680393714242221</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -3740,26 +3740,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000413435.1_7.fasta</t>
+          <t>RS_GCF_013201895.1_10.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.664066127277855e-05</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002882087167617057</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9881170358208436</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008984236350244314</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.220159793875057e-14</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9881170358208436</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3770,26 +3770,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_001190745.1_0.fasta</t>
+          <t>GB_GCA_012728225.1_2.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001234645992029732</v>
+        <v>2.219924674270483e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02157111191716594</v>
+        <v>0.001178104908586071</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9758367188578435</v>
+        <v>0.9988218950913473</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001357523232938672</v>
+        <v>2.219924674270483e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>2.219259619215731e-14</v>
+        <v>2.219924674270483e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9758367188578435</v>
+        <v>0.9988218950913473</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3800,26 +3800,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_008245005.1_12.fasta</t>
+          <t>RS_GCF_001190745.1_12.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00284746105535006</v>
+        <v>2.219842852173794e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003664840055596816</v>
+        <v>0.003244519396441056</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9933041940319249</v>
+        <v>0.9967554806034923</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0001835048571060387</v>
+        <v>2.219842852173794e-14</v>
       </c>
       <c r="F33" t="n">
-        <v>2.220273054829849e-14</v>
+        <v>2.219842852173794e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9933041940319249</v>
+        <v>0.9967554806034923</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3830,26 +3830,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_009690845.1_11.fasta</t>
+          <t>RS_GCF_009690845.1_13.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.266775188968484e-05</v>
+        <v>2.2203711304849e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01561194094931238</v>
+        <v>0.0001687856330092911</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9841424662301866</v>
+        <v>0.9998312143669242</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0002029250685892192</v>
+        <v>2.2203711304849e-14</v>
       </c>
       <c r="F34" t="n">
-        <v>2.219450229774095e-14</v>
+        <v>2.2203711304849e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9841424662301866</v>
+        <v>0.9998312143669242</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3860,26 +3860,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013201685.1_14.fasta</t>
+          <t>RS_GCF_013201895.1_5.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0335350881806771</v>
+        <v>2.219854972149506e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007251359581419425</v>
+        <v>0.01447859248910787</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9591816156747741</v>
+        <v>0.9855214075108256</v>
       </c>
       <c r="E35" t="n">
-        <v>3.19365631072978e-05</v>
+        <v>2.219854972149506e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>2.22004766206963e-14</v>
+        <v>2.219854972149506e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9591816156747741</v>
+        <v>0.9855214075108256</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3955,22 +3955,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.22036702007898e-14</v>
+        <v>2.219932279674713e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000178050871429317</v>
+        <v>0.00116086068125059</v>
       </c>
       <c r="D2" t="n">
-        <v>2.22036702007898e-14</v>
+        <v>2.219932279674713e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999821949128504</v>
+        <v>0.9988391393186827</v>
       </c>
       <c r="F2" t="n">
-        <v>2.22036702007898e-14</v>
+        <v>2.219932279674713e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999821949128504</v>
+        <v>0.9988391393186827</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -3985,22 +3985,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220443748651217e-14</v>
+        <v>2.220415604934421e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>5.180567208829064e-06</v>
+        <v>6.856829642443186e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220443748651217e-14</v>
+        <v>2.220415604934421e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999948194327246</v>
+        <v>0.9999314317035088</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220443748651217e-14</v>
+        <v>2.220415604934421e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9999948194327246</v>
+        <v>0.9999314317035088</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220445935305087e-14</v>
+        <v>2.220443302170228e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.56581899261844e-07</v>
+        <v>6.18598653946888e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220445935305087e-14</v>
+        <v>2.220443302170228e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999997434180342</v>
+        <v>0.9999938140133939</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220445935305087e-14</v>
+        <v>2.220443302170228e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9999997434180342</v>
+        <v>0.9999938140133939</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -4045,22 +4045,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.22044597718062e-14</v>
+        <v>2.220444145453759e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>1.622864670048875e-07</v>
+        <v>4.287022503671284e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>2.22044597718062e-14</v>
+        <v>2.220444145453759e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999998377134663</v>
+        <v>0.9999957129774297</v>
       </c>
       <c r="F5" t="n">
-        <v>2.22044597718062e-14</v>
+        <v>2.220444145453759e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999998377134663</v>
+        <v>0.9999957129774297</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -4075,22 +4075,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220445196355606e-14</v>
+        <v>2.220432289337742e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>1.920558828918711e-06</v>
+        <v>3.098738510110521e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220445196355606e-14</v>
+        <v>2.220432289337742e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999980794411045</v>
+        <v>0.9999690126148324</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220445196355606e-14</v>
+        <v>2.220432289337742e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999980794411045</v>
+        <v>0.9999690126148324</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -4101,26 +4101,26 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_001017575.1_16.fasta</t>
+          <t>GB_GCA_900539255.1_12.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.22036702007898e-14</v>
+        <v>0.009745656253436446</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000178050871429317</v>
+        <v>0.04187519214537055</v>
       </c>
       <c r="D7" t="n">
-        <v>2.22036702007898e-14</v>
+        <v>0.0001297345229171943</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999821949128504</v>
+        <v>0.9482494170782536</v>
       </c>
       <c r="F7" t="n">
-        <v>2.22036702007898e-14</v>
+        <v>2.220412045287052e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.999821949128504</v>
+        <v>0.9482494170782536</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -4131,26 +4131,26 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002080395.1_7.fasta</t>
+          <t>RS_GCF_000254135.1_10.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220443748651217e-14</v>
+        <v>0.0004302583049501569</v>
       </c>
       <c r="C8" t="n">
-        <v>5.180567208829064e-06</v>
+        <v>0.009025728724342538</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220443748651217e-14</v>
+        <v>1.038745122920538e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999948194327246</v>
+        <v>0.9905336255194336</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220443748651217e-14</v>
+        <v>4.457723214815751e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999948194327246</v>
+        <v>0.9905336255194336</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -4161,26 +4161,26 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_008245045.1_14.fasta</t>
+          <t>RS_GCF_000816185.1_9.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.220445935305087e-14</v>
+        <v>8.292399504513519e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.56581899261844e-07</v>
+        <v>0.02753651056980145</v>
       </c>
       <c r="D9" t="n">
-        <v>2.220445935305087e-14</v>
+        <v>2.130173781446793e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999997434180342</v>
+        <v>0.9723784352613498</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220445935305087e-14</v>
+        <v>2.219873070420955e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9999997434180342</v>
+        <v>0.9723784352613498</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -4191,26 +4191,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_008633915.1_13.fasta</t>
+          <t>RS_GCF_006864365.1_4.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.22044597718062e-14</v>
+        <v>0.02056542801564536</v>
       </c>
       <c r="C10" t="n">
-        <v>1.622864670048875e-07</v>
+        <v>0.05365534487860685</v>
       </c>
       <c r="D10" t="n">
-        <v>2.22044597718062e-14</v>
+        <v>2.121940589839738e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999998377134663</v>
+        <v>0.9257580076997302</v>
       </c>
       <c r="F10" t="n">
-        <v>2.22044597718062e-14</v>
+        <v>1.193505353241252e-13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9999998377134663</v>
+        <v>0.9257580076997302</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -4221,26 +4221,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_009362725.1_3.fasta</t>
+          <t>RS_GCF_006864425.1_19.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.220445196355606e-14</v>
+        <v>0.05697695192001959</v>
       </c>
       <c r="C11" t="n">
-        <v>1.920558828918711e-06</v>
+        <v>0.01231489372703004</v>
       </c>
       <c r="D11" t="n">
-        <v>2.220445196355606e-14</v>
+        <v>0.0004342285736332688</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999980794411045</v>
+        <v>0.9302739257791718</v>
       </c>
       <c r="F11" t="n">
-        <v>2.220445196355606e-14</v>
+        <v>1.452752004121187e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9999980794411045</v>
+        <v>0.9302739257791718</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -4251,26 +4251,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000816185.1_10.fasta</t>
+          <t>RS_GCF_006864455.1_16.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.004367453455264641</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.02100775565479216</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.064161541373349e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.9746247802483056</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.220089784071808e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9746247802483056</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -4281,26 +4281,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_001457695.1_13.fasta</t>
+          <t>RS_GCF_008245025.1_2.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.0002089978934166887</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.01818687638411544</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5.82604272939032e-06</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.9815982996797061</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.226560531256945e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.9815982996797061</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -4311,26 +4311,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_004323845.1_7.fasta</t>
+          <t>RS_GCF_001457695.1_7.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.219949004620635e-14</v>
+        <v>2.219837264382944e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>2.219949004620635e-14</v>
+        <v>0.00635941076550531</v>
       </c>
       <c r="D14" t="n">
-        <v>2.219949004620635e-14</v>
+        <v>0.00031093283870058</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9145455528410944</v>
+        <v>0.9933296563957498</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08545444715883893</v>
+        <v>2.219837264382944e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9145455528410944</v>
+        <v>0.9933296563957498</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -4341,26 +4341,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_009362725.1_13.fasta</t>
+          <t>RS_GCF_005406215.1_1.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.219949004620635e-14</v>
+        <v>2.21990431539906e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>2.219949004620635e-14</v>
+        <v>0.003179301267384239</v>
       </c>
       <c r="D15" t="n">
-        <v>2.219949004620635e-14</v>
+        <v>0.0002279172330616686</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9145455528410944</v>
+        <v>0.9965927814995097</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08545444715883893</v>
+        <v>2.21990431539906e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9145455528410944</v>
+        <v>0.9965927814995097</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -4371,26 +4371,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013201605.1_5.fasta</t>
+          <t>RS_GCF_009362725.1_11.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.219844790559851e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.004639506556097664</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.974134915398194e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.9953585193089425</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.219844790559851e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.9953585193089425</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -4401,26 +4401,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013372105.1_16.fasta</t>
+          <t>RS_GCF_900637395.1_1.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.219973392354522e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.003865793863880894</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.0005614677912292652</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.9955727383448455</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.219973392354522e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.9955727383448455</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -4431,26 +4431,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900637395.1_0.fasta</t>
+          <t>GB_GCA_900539255.1_14.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2.217710091341135e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.000383272704261485</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.06382970506315579</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.9357870222325384</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.217710091341135e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.9357870222325384</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -4461,26 +4461,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900637395.1_17.fasta</t>
+          <t>RS_GCF_001017575.1_12.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.220148989990101e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.002452643471276897</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.001623348175423933</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.9959240083532548</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.220148989990101e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.9959240083532548</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -4491,26 +4491,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900539255.1_14.fasta</t>
+          <t>RS_GCF_002179635.1_14.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.217710091341135e-14</v>
+        <v>2.219907689262053e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0.000383272704261485</v>
+        <v>0.0002731268549972409</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06382970506315579</v>
+        <v>0.003855188932963857</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9357870222325384</v>
+        <v>0.9958716842119946</v>
       </c>
       <c r="F20" t="n">
-        <v>2.217710091341135e-14</v>
+        <v>2.219907689262053e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9357870222325384</v>
+        <v>0.9958716842119946</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -4521,26 +4521,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_001017575.1_12.fasta</t>
+          <t>RS_GCF_006864455.1_17.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.220148989990101e-14</v>
+        <v>2.219754823061472e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002452643471276897</v>
+        <v>0.00869776736747414</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001623348175423933</v>
+        <v>0.0001138996479585463</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9959240083532548</v>
+        <v>0.9911883329845229</v>
       </c>
       <c r="F21" t="n">
-        <v>2.220148989990101e-14</v>
+        <v>2.219754823061472e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9959240083532548</v>
+        <v>0.9911883329845229</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -4551,26 +4551,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_002179635.1_14.fasta</t>
+          <t>RS_GCF_014305285.1_2.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.219907689262053e-14</v>
+        <v>2.21987873621331e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002731268549972409</v>
+        <v>2.46030646805456e-07</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003855188932963857</v>
+        <v>0.03141488994699867</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9958716842119946</v>
+        <v>0.96858486402231</v>
       </c>
       <c r="F22" t="n">
-        <v>2.219907689262053e-14</v>
+        <v>2.21987873621331e-14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9958716842119946</v>
+        <v>0.96858486402231</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -4581,26 +4581,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_006864455.1_17.fasta</t>
+          <t>RS_GCF_900637395.1_8.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.219754823061472e-14</v>
+        <v>2.22001398175338e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00869776736747414</v>
+        <v>0.002025484505546504</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001138996479585463</v>
+        <v>0.0007973578454593274</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9911883329845229</v>
+        <v>0.9971771576489499</v>
       </c>
       <c r="F23" t="n">
-        <v>2.219754823061472e-14</v>
+        <v>2.22001398175338e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9911883329845229</v>
+        <v>0.9971771576489499</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -4611,26 +4611,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_014305285.1_2.fasta</t>
+          <t>RS_GCF_000816185.1_10.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.21987873621331e-14</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.46030646805456e-07</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03141488994699867</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.96858486402231</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>2.21987873621331e-14</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.96858486402231</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -4641,26 +4641,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900637395.1_8.fasta</t>
+          <t>RS_GCF_001457695.1_13.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.22001398175338e-14</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002025484505546504</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0007973578454593274</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9971771576489499</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2.22001398175338e-14</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9971771576489499</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -4671,26 +4671,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_001457695.1_7.fasta</t>
+          <t>RS_GCF_004323845.1_7.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.219832636220963e-14</v>
+        <v>2.219949004620635e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0.006123708769852037</v>
+        <v>2.219949004620635e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>3.672558428518776e-05</v>
+        <v>2.219949004620635e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9938395656458183</v>
+        <v>0.9145455528410944</v>
       </c>
       <c r="F26" t="n">
-        <v>2.219832636220963e-14</v>
+        <v>0.08545444715883893</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9938395656458183</v>
+        <v>0.9145455528410944</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -4701,26 +4701,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_005406215.1_1.fasta</t>
+          <t>RS_GCF_009362725.1_13.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.219851043991694e-14</v>
+        <v>2.219949004620635e-14</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002972493178236473</v>
+        <v>2.219949004620635e-14</v>
       </c>
       <c r="D27" t="n">
-        <v>2.692885176637256e-05</v>
+        <v>2.219949004620635e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9970005779699527</v>
+        <v>0.9145455528410944</v>
       </c>
       <c r="F27" t="n">
-        <v>2.219851043991694e-14</v>
+        <v>0.08545444715883893</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9970005779699527</v>
+        <v>0.9145455528410944</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -4731,26 +4731,26 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_009362725.1_11.fasta</t>
+          <t>RS_GCF_013201605.1_5.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.219844778984151e-14</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004394446869478986</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.161456116848497e-08</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9956055015159155</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>2.219844778984151e-14</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9956055015159155</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -4761,26 +4761,26 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900637395.1_1.fasta</t>
+          <t>RS_GCF_013372105.1_16.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.219863658646476e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00369236544391355</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.492307250916858e-05</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9962227114835329</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>2.219863658646476e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9962227114835329</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -4791,26 +4791,26 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900539255.1_12.fasta</t>
+          <t>RS_GCF_900637395.1_0.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.007523985725891991</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04123571818428023</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.220205109034614e-14</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9512402960897833</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>2.220205109034614e-14</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9512402960897833</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -4821,26 +4821,26 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000254135.1_10.fasta</t>
+          <t>RS_GCF_900637395.1_17.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0002687529798797005</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.008359547937394247</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3.363241144571517e-14</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9913716990826588</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>3.363241144571605e-14</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9913716990826588</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -4851,26 +4851,26 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_000816185.1_9.fasta</t>
+          <t>RS_GCF_001017575.1_16.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.980896840214748e-05</v>
+        <v>2.219932279674713e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02631584988386731</v>
+        <v>0.00116086068125059</v>
       </c>
       <c r="D32" t="n">
-        <v>2.219877725325417e-14</v>
+        <v>2.219932279674713e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.973624341147686</v>
+        <v>0.9988391393186827</v>
       </c>
       <c r="F32" t="n">
-        <v>2.219877725325417e-14</v>
+        <v>2.219932279674713e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0.973624341147686</v>
+        <v>0.9988391393186827</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4881,26 +4881,26 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_006864365.1_4.fasta</t>
+          <t>RS_GCF_002080395.1_7.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01609059744898235</v>
+        <v>2.220415604934421e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05205443044728014</v>
+        <v>6.856829642443186e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>1.099264062390807e-13</v>
+        <v>2.220415604934421e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9318549721035179</v>
+        <v>0.9999314317035088</v>
       </c>
       <c r="F33" t="n">
-        <v>1.099264062390809e-13</v>
+        <v>2.220415604934421e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9318549721035179</v>
+        <v>0.9999314317035088</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -4911,26 +4911,26 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_006864425.1_19.fasta</t>
+          <t>RS_GCF_008245045.1_14.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0498755839806784</v>
+        <v>2.220443302170228e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01393668615276201</v>
+        <v>6.18598653946888e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>1.510119440804151e-13</v>
+        <v>2.220443302170228e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9361877298662575</v>
+        <v>0.9999938140133939</v>
       </c>
       <c r="F34" t="n">
-        <v>1.510119440804151e-13</v>
+        <v>2.220443302170228e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9361877298662575</v>
+        <v>0.9999938140133939</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -4941,26 +4941,26 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_006864455.1_16.fasta</t>
+          <t>RS_GCF_008633915.1_13.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.00326205766146397</v>
+        <v>2.220444145453759e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02069671961086151</v>
+        <v>4.287022503671284e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>2.220068435299276e-14</v>
+        <v>2.220444145453759e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9760412227276301</v>
+        <v>0.9999957129774297</v>
       </c>
       <c r="F35" t="n">
-        <v>2.220068435299276e-14</v>
+        <v>2.220444145453759e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9760412227276301</v>
+        <v>0.9999957129774297</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -4971,26 +4971,26 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_008245025.1_2.fasta</t>
+          <t>RS_GCF_009362725.1_3.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0001376305192006106</v>
+        <v>2.220432289337742e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01708503026546329</v>
+        <v>3.098738510110521e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>2.582632614374132e-14</v>
+        <v>2.220432289337742e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9827773392152844</v>
+        <v>0.9999690126148324</v>
       </c>
       <c r="F36" t="n">
-        <v>2.582632614374134e-14</v>
+        <v>2.220432289337742e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9827773392152844</v>
+        <v>0.9999690126148324</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -5066,22 +5066,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220445821241069e-14</v>
+        <v>2.2204412627527e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>5.134318128523174e-07</v>
+        <v>1.077857508835451e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220445821241069e-14</v>
+        <v>2.2204412627527e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.220445821241069e-14</v>
+        <v>2.2204412627527e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999994865681207</v>
+        <v>0.9999892214248451</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9999994865681207</v>
+        <v>0.9999892214248451</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220397573483209e-14</v>
+        <v>2.220098021523247e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000109192698715711</v>
+        <v>0.0007854991271920974</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220397573483209e-14</v>
+        <v>2.220098021523247e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220397573483209e-14</v>
+        <v>2.220098021523247e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998908073012177</v>
+        <v>0.9992145008727412</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9998908073012177</v>
+        <v>0.9992145008727412</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -5126,22 +5126,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220431170015891e-14</v>
+        <v>2.220310531037698e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>3.350835077706056e-05</v>
+        <v>0.0003054335627730142</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220431170015891e-14</v>
+        <v>2.220310531037698e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220431170015891e-14</v>
+        <v>2.220310531037698e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999664916491564</v>
+        <v>0.9996945664371603</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9999664916491564</v>
+        <v>0.9996945664371603</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220438740494074e-14</v>
+        <v>2.22036928928401e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>1.645865041013235e-05</v>
+        <v>0.0001729358092456884</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220438740494074e-14</v>
+        <v>2.22036928928401e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220438740494074e-14</v>
+        <v>2.22036928928401e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999835413495233</v>
+        <v>0.9998270641906878</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999835413495233</v>
+        <v>0.9998270641906878</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -5186,22 +5186,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220438314907446e-14</v>
+        <v>2.220365734760396e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>1.741708153913031e-05</v>
+        <v>0.0001809482029212275</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220438314907446e-14</v>
+        <v>2.220365734760396e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220438314907446e-14</v>
+        <v>2.220365734760396e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999825829183943</v>
+        <v>0.9998190517970121</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999825829183943</v>
+        <v>0.9998190517970121</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -5216,22 +5216,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220445373031743e-14</v>
+        <v>2.220434622310752e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>1.522715517552468e-06</v>
+        <v>2.573312269160749e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220445373031743e-14</v>
+        <v>2.220434622310752e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220445373031743e-14</v>
+        <v>2.220434622310752e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999984772844158</v>
+        <v>0.9999742668772418</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999984772844158</v>
+        <v>0.9999742668772418</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -5242,26 +5242,26 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_0.fasta</t>
+          <t>RS_GCF_013177655.1_11.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220445821241069e-14</v>
+        <v>5.44784295630237e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>5.134318128523174e-07</v>
+        <v>0.003808975853302333</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220445821241069e-14</v>
+        <v>2.220253631705844e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220445821241069e-14</v>
+        <v>0.002518932960555167</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999994865681207</v>
+        <v>0.9936176127565574</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9999994865681207</v>
+        <v>0.9936176127565574</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -5272,26 +5272,26 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_14.fasta</t>
+          <t>RS_GCF_013177655.1_12.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.220397573483209e-14</v>
+        <v>3.787421714405988e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000109192698715711</v>
+        <v>0.005088306230166626</v>
       </c>
       <c r="D9" t="n">
-        <v>2.220397573483209e-14</v>
+        <v>2.220116732975822e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220397573483209e-14</v>
+        <v>0.001575564711568986</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998908073012177</v>
+        <v>0.993298254841098</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9998908073012177</v>
+        <v>0.993298254841098</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -5302,26 +5302,26 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_15.fasta</t>
+          <t>RS_GCF_013177655.1_16.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.220431170015891e-14</v>
+        <v>4.785535871096687e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>3.350835077706056e-05</v>
+        <v>0.00565821563780022</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220431170015891e-14</v>
+        <v>2.22000982385766e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220431170015891e-14</v>
+        <v>0.00110635406918031</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999664916491564</v>
+        <v>0.9931875749342863</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9999664916491564</v>
+        <v>0.9931875749342863</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -5332,26 +5332,26 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_17.fasta</t>
+          <t>RS_GCF_013177655.1_18.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.220438740494074e-14</v>
+        <v>3.340753634256028e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>1.645865041013235e-05</v>
+        <v>0.01144475652859738</v>
       </c>
       <c r="D11" t="n">
-        <v>2.220438740494074e-14</v>
+        <v>2.220474558764416e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>2.220438740494074e-14</v>
+        <v>0.00591137401155013</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999835413495233</v>
+        <v>0.9826104619234878</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9999835413495233</v>
+        <v>0.9826104619234878</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -5362,26 +5362,26 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_4.fasta</t>
+          <t>RS_GCF_013177655.1_2.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.220438314907446e-14</v>
+        <v>3.148421134626959e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>1.741708153913031e-05</v>
+        <v>0.005915284118018429</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220438314907446e-14</v>
+        <v>2.220334200877561e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220438314907446e-14</v>
+        <v>0.003697616209596033</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999825829183943</v>
+        <v>0.9903556154610171</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9999825829183943</v>
+        <v>0.9903556154610171</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -5392,26 +5392,26 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_7.fasta</t>
+          <t>RS_GCF_013177655.1_13.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.220445373031743e-14</v>
+        <v>2.219859996523613e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>1.522715517552468e-06</v>
+        <v>0.01592996199015578</v>
       </c>
       <c r="D13" t="n">
-        <v>2.220445373031743e-14</v>
+        <v>4.88249893247969e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>2.220445373031743e-14</v>
+        <v>2.219859996523613e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999984772844158</v>
+        <v>0.9840700380097511</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9999984772844158</v>
+        <v>0.9840700380097511</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -5422,26 +5422,26 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_3.fasta</t>
+          <t>RS_GCF_013177655.1_19.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.21985083041336e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.01051057629425162</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.21985083041336e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.21985083041336e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.9894894237056817</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9894894237056817</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -5452,26 +5452,26 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_1.fasta</t>
+          <t>RS_GCF_013177655.1_9.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1744218791412692</v>
+        <v>2.219850926119966e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.185920938799944</v>
+        <v>0.007254104738852112</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1744218801110338</v>
+        <v>2.219850926119966e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1744218791412691</v>
+        <v>2.219850926119966e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2908134228064839</v>
+        <v>0.9927458952610813</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2908134228064839</v>
+        <v>0.9927458952610813</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -5482,26 +5482,26 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_10.fasta</t>
+          <t>RS_GCF_013177655.1_1.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.219840195644863e-14</v>
+        <v>0.1744218791412692</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001370776011098737</v>
+        <v>0.185920938799944</v>
       </c>
       <c r="D16" t="n">
-        <v>7.923326154246791e-10</v>
+        <v>0.1744218801110338</v>
       </c>
       <c r="E16" t="n">
-        <v>2.219840195644863e-14</v>
+        <v>0.1744218791412691</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9986292231965243</v>
+        <v>0.2908134228064839</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9986292231965243</v>
+        <v>0.2908134228064839</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -5512,26 +5512,26 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_5.fasta</t>
+          <t>RS_GCF_013177655.1_10.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.219883708952564e-14</v>
+        <v>2.219840195644863e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001271017983200752</v>
+        <v>0.001370776011098737</v>
       </c>
       <c r="D17" t="n">
-        <v>5.193467604047095e-10</v>
+        <v>7.923326154246791e-10</v>
       </c>
       <c r="E17" t="n">
-        <v>2.219883708952564e-14</v>
+        <v>2.219840195644863e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.998728981497408</v>
+        <v>0.9986292231965243</v>
       </c>
       <c r="G17" t="n">
-        <v>0.998728981497408</v>
+        <v>0.9986292231965243</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -5542,26 +5542,26 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_6.fasta</t>
+          <t>RS_GCF_013177655.1_5.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.219843308571952e-14</v>
+        <v>2.219883708952564e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003758385061469619</v>
+        <v>0.001271017983200752</v>
       </c>
       <c r="D18" t="n">
-        <v>2.543107483989801e-10</v>
+        <v>5.193467604047095e-10</v>
       </c>
       <c r="E18" t="n">
-        <v>2.219843308571952e-14</v>
+        <v>2.219883708952564e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9962416146841753</v>
+        <v>0.998728981497408</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9962416146841753</v>
+        <v>0.998728981497408</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -5572,26 +5572,26 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_8.fasta</t>
+          <t>RS_GCF_013177655.1_6.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.219847810457166e-14</v>
+        <v>2.219843308571952e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005915008636922284</v>
+        <v>0.003758385061469619</v>
       </c>
       <c r="D19" t="n">
-        <v>9.264943549222639e-11</v>
+        <v>2.543107483989801e-10</v>
       </c>
       <c r="E19" t="n">
-        <v>2.219847810457166e-14</v>
+        <v>2.219843308571952e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.994084991270384</v>
+        <v>0.9962416146841753</v>
       </c>
       <c r="G19" t="n">
-        <v>0.994084991270384</v>
+        <v>0.9962416146841753</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -5602,26 +5602,26 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_13.fasta</t>
+          <t>RS_GCF_013177655.1_8.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.2198671889148e-14</v>
+        <v>2.219847810457166e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01707190845624584</v>
+        <v>0.005915008636922284</v>
       </c>
       <c r="D20" t="n">
-        <v>2.2198671889148e-14</v>
+        <v>9.264943549222639e-11</v>
       </c>
       <c r="E20" t="n">
-        <v>2.2198671889148e-14</v>
+        <v>2.219847810457166e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9829280915436877</v>
+        <v>0.994084991270384</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9829280915436877</v>
+        <v>0.994084991270384</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -5632,26 +5632,26 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_19.fasta</t>
+          <t>RS_GCF_013177655.1_3.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.219851134117304e-14</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01079690150774617</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.219851134117304e-14</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.219851134117304e-14</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9892030984921871</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9892030984921871</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -5662,26 +5662,26 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_9.fasta</t>
+          <t>RS_GCF_013177655.1_0.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.219849463592628e-14</v>
+        <v>2.2204412627527e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007177440020925321</v>
+        <v>1.077857508835451e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>2.219849463592628e-14</v>
+        <v>2.2204412627527e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>2.219849463592628e-14</v>
+        <v>2.2204412627527e-14</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9928225599790081</v>
+        <v>0.9999892214248451</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9928225599790081</v>
+        <v>0.9999892214248451</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -5692,26 +5692,26 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_11.fasta</t>
+          <t>RS_GCF_013177655.1_14.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.445335767553223e-05</v>
+        <v>2.220098021523247e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004173871188106784</v>
+        <v>0.0007854991271920974</v>
       </c>
       <c r="D23" t="n">
-        <v>2.220228396887653e-14</v>
+        <v>2.220098021523247e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002192501960795424</v>
+        <v>2.220098021523247e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9935891734934</v>
+        <v>0.9992145008727412</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9935891734934</v>
+        <v>0.9992145008727412</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -5722,26 +5722,26 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_12.fasta</t>
+          <t>RS_GCF_013177655.1_15.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.072135327156247e-05</v>
+        <v>2.220310531037698e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>0.005495202283520331</v>
+        <v>0.0003054335627730142</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220067385397795e-14</v>
+        <v>2.220310531037698e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001349777837145225</v>
+        <v>2.220310531037698e-14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9931242985260406</v>
+        <v>0.9996945664371603</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9931242985260406</v>
+        <v>0.9996945664371603</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -5752,26 +5752,26 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_16.fasta</t>
+          <t>RS_GCF_013177655.1_17.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.850841191310492e-05</v>
+        <v>2.22036928928401e-14</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006065650279534741</v>
+        <v>0.0001729358092456884</v>
       </c>
       <c r="D25" t="n">
-        <v>2.219964887484274e-14</v>
+        <v>2.22036928928401e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009348031555768275</v>
+        <v>2.22036928928401e-14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9929610381529531</v>
+        <v>0.9998270641906878</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9929610381529531</v>
+        <v>0.9998270641906878</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -5782,26 +5782,26 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_18.fasta</t>
+          <t>RS_GCF_013177655.1_4.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.751082055438371e-05</v>
+        <v>2.220365734760396e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01207813188743169</v>
+        <v>0.0001809482029212275</v>
       </c>
       <c r="D26" t="n">
-        <v>2.220350963956625e-14</v>
+        <v>2.220365734760396e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00533676764763219</v>
+        <v>2.220365734760396e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9825575896443595</v>
+        <v>0.9998190517970121</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9825575896443595</v>
+        <v>0.9998190517970121</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -5812,26 +5812,26 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_013177655.1_2.fasta</t>
+          <t>RS_GCF_013177655.1_7.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.570092097024335e-05</v>
+        <v>2.220434622310752e-14</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006377184974703957</v>
+        <v>2.573312269160749e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>2.22030168211239e-14</v>
+        <v>2.220434622310752e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00325989519933205</v>
+        <v>2.220434622310752e-14</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9903372189049716</v>
+        <v>0.9999742668772418</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9903372189049716</v>
+        <v>0.9999742668772418</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
